--- a/Análise de dados - Excel/Controle de Rotas.xlsx
+++ b/Análise de dados - Excel/Controle de Rotas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\OneDrive\Documentos\GitHub\Formacao-Excel-Alura\Excel - tabelas dinamicas e dashboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\OneDrive\Documentos\GitHub\Projetos\Análise de dados - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC8041C-4A1B-4158-A47D-1DD56D6CC97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3C1BD-91E5-4C1E-B4E3-40C31135D5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B673A230-CF2B-4926-840F-06DAC6DEF54A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -221,9 +221,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -439,37 +439,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -480,34 +477,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,57 +522,71 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="822">
+  <dxfs count="40">
     <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -617,51 +634,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <bgColor theme="0"/>
         </patternFill>
@@ -697,36 +669,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -774,8 +718,36 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
+        <patternFill>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
@@ -815,3818 +787,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -4662,1547 +823,11 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Linha do Tempo 1" pivot="0" table="0" count="9" xr9:uid="{D0002384-4E0D-4D45-9D69-2C95FD53E834}">
-      <tableStyleElement type="wholeTable" dxfId="596"/>
-      <tableStyleElement type="headerRow" dxfId="595"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -6210,7 +835,7 @@
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{A0A4C193-F2C1-4fcb-8827-314CF55A85BB}">
-      <x15:dxfs count="21">
+      <x15:dxfs count="7">
         <dxf>
           <fill>
             <patternFill>
@@ -6270,112 +895,6 @@
             <scheme val="minor"/>
           </font>
         </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="1" tint="0.14996795556505021"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="9"/>
-            <color theme="1" tint="0.499984740745262"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="9"/>
-            <color theme="1" tint="0.499984740745262"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="9"/>
-            <color theme="1" tint="0.499984740745262"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="10"/>
-            <color theme="1" tint="0.499984740745262"/>
-          </font>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="0" tint="-0.14999847407452621"/>
-              <bgColor theme="0" tint="-0.14999847407452621"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="0"/>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="5"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="0" tint="-0.14999847407452621"/>
-              <bgColor theme="0" tint="-0.14999847407452621"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="0"/>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="9"/>
-            <color theme="5"/>
-            <name val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="9"/>
-            <color theme="5"/>
-            <name val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="9"/>
-            <color theme="5"/>
-            <name val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="10"/>
-            <color theme="5"/>
-            <name val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </font>
-        </dxf>
       </x15:dxfs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
@@ -6400,7 +919,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6510,8 +1029,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6572,6 +1090,129 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6861,7 +1502,7 @@
             <c:numRef>
               <c:f>'Tabelas Dinâmicas'!$B$11:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"R$"\ * #,##0.00_-;\-"R$"\ * #,##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5316.2790697674418</c:v>
@@ -7005,7 +1646,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7093,49 +1734,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7328,7 +1927,7 @@
         <c:spPr>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -7437,7 +2036,7 @@
         <c:spPr>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -7546,7 +2145,7 @@
         <c:spPr>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -7655,7 +2254,7 @@
         <c:spPr>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -7764,7 +2363,7 @@
         <c:spPr>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -8145,6 +2744,276 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-5D3E-4A58-A7C7-970B7C4B0FE4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5D3E-4A58-A7C7-970B7C4B0FE4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5D3E-4A58-A7C7-970B7C4B0FE4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5D3E-4A58-A7C7-970B7C4B0FE4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent2">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5D3E-4A58-A7C7-970B7C4B0FE4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
@@ -9837,8 +4706,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Data Contrato 1">
@@ -9856,12 +4725,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Data Contrato 1"/>
+              <tsle:timeslicer name="Data Contrato 1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10113,7 +4982,7 @@
     <cacheField name="Status do Contrato" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Valor do Contrato" numFmtId="44">
+    <cacheField name="Valor do Contrato" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="80" maxValue="2395"/>
     </cacheField>
     <cacheField name="Carga" numFmtId="0">
@@ -10596,7 +5465,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC5BA9BA-2460-4066-88D7-0804D98A9C93}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC5BA9BA-2460-4066-88D7-0804D98A9C93}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="D10:F19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0" defaultSubtotal="0">
@@ -10640,7 +5509,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="44" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="8">
         <item x="7"/>
@@ -10710,26 +5579,26 @@
     <dataField name="Contagem de Destino" fld="10" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="787">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="788">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="789">
+    <format dxfId="18">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="790">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="791">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="792">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10739,26 +5608,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="793">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="794">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="795">
+    <format dxfId="12">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="796">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="797">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="798">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10768,26 +5637,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="799">
+    <format dxfId="8">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="800">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="801">
+    <format dxfId="6">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="802">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="803">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="804">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10920,7 +5789,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B3C4E0D-CD99-46D1-B5DF-C37174C5376B}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B3C4E0D-CD99-46D1-B5DF-C37174C5376B}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A10:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
@@ -10966,7 +5835,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -11013,67 +5882,103 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de Valor do Contrato" fld="3" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Soma de Valor do Contrato" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="17">
-    <format dxfId="805">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="806">
+    <format dxfId="36">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="807">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="808">
+    <format dxfId="34">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="809">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="810">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="811">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="812">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="813">
+    <format dxfId="29">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="814">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="815">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="816">
+    <format dxfId="26">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="817">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="818">
+    <format dxfId="24">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="819">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="820">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="821">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="4">
     <chartFormat chart="1" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -11135,7 +6040,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11472,539 +6377,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="33"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="str">
+      <c r="A2" s="33" t="str">
         <f>IF(I16&lt;'Indicadores Base'!A2,"Média de Peso abaixo do normal","")</f>
         <v/>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="31" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="38" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="24">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="27">
         <f>GETPIVOTDATA("Soma de Peso (Kg)",'Tabelas Dinâmicas'!$D$10)</f>
         <v>2425</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="29">
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="31">
         <f>GETPIVOTDATA("Valor do Contrato",'Tabelas Dinâmicas'!$A$10)</f>
         <v>20131.381719025903</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="29"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="29"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="29"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="30"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="23" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="37" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="24">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="27">
         <f>GETPIVOTDATA("Contagem de Destino",'Tabelas Dinâmicas'!$D$10)</f>
         <v>23</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="24">
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="27">
         <f>COUNTIF(SituacaoPartidas,"*Aberto*Atrasada*")</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="24"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="27"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="24"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="27"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="24"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="25"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="28"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="23" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="37" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="27">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="29">
         <f>I4/I10</f>
         <v>105.43478260869566</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="24">
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="27">
         <f>COUNTIF(SituacaoChegada,"*Aberto*")</f>
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="24"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="24"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="27"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="24"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="25"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="28"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12"/>
+      <c r="A21" s="8"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="12"/>
+      <c r="A24" s="8"/>
+      <c r="R24" s="9"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12017,17 +6858,17 @@
     <mergeCell ref="R16:R20"/>
     <mergeCell ref="A2:R2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A2:R2">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="peso">
+      <formula>NOT(ISERROR(SEARCH("peso",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R10:R14">
-    <cfRule type="expression" dxfId="643" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$R$10=$R$16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$R$10&gt;=$R$16/2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:R2">
-    <cfRule type="containsText" dxfId="640" priority="1" operator="containsText" text="peso">
-      <formula>NOT(ISERROR(SEARCH("peso",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -12091,109 +6932,109 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>5316.2790697674418</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>157</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>5935.131195335277</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>850</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>8879.9714539231845</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>20131.381719025903</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>55</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15">
         <v>51</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>1270</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
@@ -12201,35 +7042,35 @@
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>14</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>23</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>2425</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19">
         <v>23</v>
       </c>
     </row>
@@ -13502,21 +8343,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DADAA82B37D6A34396C9A79382D322B2" ma:contentTypeVersion="7" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1793825d7b05ea3989becfa6f4c745dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44473e96-bad3-4ccd-b3db-2438e2abade5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="056e6b85bc79c915fb5c20b44a88eb3f" ns3:_="">
     <xsd:import namespace="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
@@ -13680,10 +8506,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4CE2725-B27F-4F45-8730-2F37D1E15C2D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E692FDF-EAFF-4092-8ABB-67254EBFAA57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13705,19 +8556,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E692FDF-EAFF-4092-8ABB-67254EBFAA57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4CE2725-B27F-4F45-8730-2F37D1E15C2D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>